--- a/wer_hye.xlsx
+++ b/wer_hye.xlsx
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>68.08236808236808</v>
+        <v>51.361</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>52.06043956043956</v>
+        <v>39.811</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>53.65005793742758</v>
+        <v>40.482</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>48.18481848184818</v>
+        <v>31.516</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55.52367288378765</v>
+        <v>40.986</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -693,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60.72684642438453</v>
+        <v>34.737</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>62.85714285714285</v>
+        <v>52.031</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59.21483097055616</v>
+        <v>38.943</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>51.73210161662818</v>
+        <v>48.405</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>48.35858585858585</v>
+        <v>41.625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>62.30964467005076</v>
+        <v>51.324</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -741,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>51.84174624829468</v>
+        <v>36.658</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -749,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>61.21546961325966</v>
+        <v>45.833</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>67.8726483357453</v>
+        <v>57.429</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -765,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>58.58725761772853</v>
+        <v>45.935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>57.69230769230769</v>
+        <v>41.647</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>46.59763313609467</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -789,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>60.375</v>
+        <v>39.778</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -797,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>59.36352509179926</v>
+        <v>56.448</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -805,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>51.22897800776197</v>
+        <v>40.717</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -813,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>68.24925816023739</v>
+        <v>58.884</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -821,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>53.86702849389417</v>
+        <v>47.137</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>58.46681922196796</v>
+        <v>41.297</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -837,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>60.08064516129033</v>
+        <v>50.133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>45.90643274853801</v>
+        <v>35.456</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -853,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>55.67282321899736</v>
+        <v>43.137</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>59.5771144278607</v>
+        <v>43.067</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -869,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>55.79302587176603</v>
+        <v>40.684</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -877,7 +877,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>51.7531556802244</v>
+        <v>33.838</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -885,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>61.10304789550073</v>
+        <v>40.634</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -893,7 +893,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>54.51263537906137</v>
+        <v>39.167</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -901,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>51.56054931335831</v>
+        <v>50.248</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -909,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>59.32642487046632</v>
+        <v>46.173</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>55.92635212888377</v>
+        <v>41.714</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -925,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>54.61254612546126</v>
+        <v>37.969</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -933,7 +933,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>50.99648300117233</v>
+        <v>44.651</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -941,7 +941,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>60.60606060606061</v>
+        <v>48.819</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -949,7 +949,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>56.08108108108109</v>
+        <v>54.594</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -957,7 +957,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>58.77763328998699</v>
+        <v>49.552</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -965,7 +965,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>53.06971904266389</v>
+        <v>36.503</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -973,7 +973,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>47.33009708737864</v>
+        <v>41.487</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -981,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>54.56595264937994</v>
+        <v>38.436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>54.25257731958762</v>
+        <v>46.556</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -997,7 +997,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>44.21930870083433</v>
+        <v>34.854</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>60.02239641657335</v>
+        <v>44.013</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>59.64673913043478</v>
+        <v>53.028</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>48.72122762148338</v>
+        <v>39.268</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>54.59610027855153</v>
+        <v>50.761</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>50.97560975609756</v>
+        <v>40.41</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>49.55654101995565</v>
+        <v>37.897</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>55.11551155115512</v>
+        <v>55.337</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>49.25187032418953</v>
+        <v>41.162</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>53.70813397129187</v>
+        <v>37.47</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>43.8974358974359</v>
+        <v>33.569</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>54.00291120815138</v>
+        <v>37.518</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>56.00000000000001</v>
+        <v>35.344</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>60.51980198019802</v>
+        <v>50.184</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>48.19102749638206</v>
+        <v>36.492</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>54.68245425188375</v>
+        <v>39.513</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>53.27468230694037</v>
+        <v>33.946</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>57.22488038277513</v>
+        <v>48.011</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>60.22584692597239</v>
+        <v>46.402</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>60.87470449172577</v>
+        <v>50.994</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>54.99438832772167</v>
+        <v>45.587</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>55.31034482758621</v>
+        <v>37.414</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>50.71507150715071</v>
+        <v>35.978</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>58.15789473684211</v>
+        <v>44.531</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>72.92993630573248</v>
+        <v>75.039</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>69.02887139107612</v>
+        <v>61.14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>51.87500000000001</v>
+        <v>39.875</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>47.70436730123181</v>
+        <v>37.958</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>58.50422195416164</v>
+        <v>47.312</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>59.1283863368669</v>
+        <v>44.145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>57.94655414908579</v>
+        <v>49.444</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>62.20472440944882</v>
+        <v>48.249</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>52.38095238095239</v>
+        <v>49.483</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>61.98347107438017</v>
+        <v>44.457</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>55.55555555555556</v>
+        <v>39.755</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>58.59269282814614</v>
+        <v>37.017</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>47.97297297297297</v>
+        <v>39.778</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>54.60122699386503</v>
+        <v>43.758</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>51.25748502994012</v>
+        <v>44.379</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>54.46527012127894</v>
+        <v>34.967</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>51.68539325842697</v>
+        <v>37.994</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>56.37319316688568</v>
+        <v>54.319</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>53.65853658536586</v>
+        <v>44.355</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>47.24186704384724</v>
+        <v>38.301</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>51.06132075471697</v>
+        <v>48.014</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>60.38415366146459</v>
+        <v>44.524</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>59.80662983425415</v>
+        <v>40.866</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>50.93399750933998</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>50</v>
+        <v>40.392</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>50.39473684210526</v>
+        <v>43.286</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>48.06866952789699</v>
+        <v>31.423</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>58.83905013192611</v>
+        <v>43.342</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>50</v>
+        <v>32.139</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>56.01617795753286</v>
+        <v>37.525</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>70.51792828685259</v>
+        <v>59.277</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>47.53901560624249</v>
+        <v>39.952</v>
       </c>
     </row>
   </sheetData>
